--- a/data/Pelletier2018_Standards.xlsx
+++ b/data/Pelletier2018_Standards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\MAMBI Rollout_djg\SF Bay RMP\R Stuff\djg_MAMBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidg\Documents\Projects\MAMBI Tool\Final MAMBI Tool\MAMBI Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C17130E-72DD-4ECA-9DC4-A89B8E6D0169}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76D5BB-77C6-48C8-8BBB-B93D418A9923}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1" xr2:uid="{19F7822D-861E-47C5-865E-3854A38EE367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{19F7822D-861E-47C5-865E-3854A38EE367}"/>
   </bookViews>
   <sheets>
     <sheet name="Saline Sites" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Replicate</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>SalZone</t>
+  </si>
+  <si>
+    <t>TF_bad_placeholder</t>
+  </si>
+  <si>
+    <t>TF_good_placeholder</t>
   </si>
 </sst>
 </file>
@@ -470,13 +476,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79BC212-C50E-409F-B7B1-7774D65E439D}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -776,6 +785,46 @@
       </c>
       <c r="F15" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.15</v>
+      </c>
+      <c r="D17">
+        <v>1.93</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D19413A-F866-444D-A76F-41F5A3EBF3D8}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
